--- a/biology/Histoire de la zoologie et de la botanique/Carlos_Manuel_Ochoa/Carlos_Manuel_Ochoa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carlos_Manuel_Ochoa/Carlos_Manuel_Ochoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlos Manuel Ochoa Nieves (né le 27 novembre 1929 à Cuzco - décédé le 11 décembre 2008 à Lima) était un botaniste et obtenteur péruvien, qui s'est distingué par ses travaux sur la pomme de terre
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Cuzco au Pérou, Carlos Ochoa a fait ses études à l'université San Simón de Cochabamba en Bolivie puis à l'université du Minnesota aux États-Unis. Il a longtemps exercer le métier de sélectionneur et obtenteur de variétés de blé et de pomme de terre.
 Parmi les plus importantes variétés de pomme de terre qu'il a créées figurent 'Renacimiento', 'Yungay' et 'Tomasa Condemayta'.
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reçut de nombreuses récompenses internationales, dont le Distinguished Economic Botanist en 1997[1] et le William Brown award for Plant Genetic Resources en 2001[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçut de nombreuses récompenses internationales, dont le Distinguished Economic Botanist en 1997 et le William Brown award for Plant Genetic Resources en 2001.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1962. Los Solanum tuberiferos silvestres del Perú : Secc. Tuberarium, Sub.-Secc. Hyperbasarthrum
 1991. The potatoes of South America. Bolivia. Cambridge Press. 570 p.  (ISBN 0521-38024-3)
